--- a/File/PaymentSheet.xlsx
+++ b/File/PaymentSheet.xlsx
@@ -38,6 +38,9 @@
   </x:si>
   <x:si>
     <x:t>Team</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -388,13 +391,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:I2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -418,6 +421,9 @@
       </x:c>
       <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
